--- a/Data/Export/15 RN Mantet.xlsx
+++ b/Data/Export/15 RN Mantet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="600" windowWidth="28220" windowHeight="11960"/>
+    <workbookView xWindow="285" yWindow="600" windowWidth="24240" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Placettes" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Rege!$A$1:$M$373</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Transect!$A$1:$L$159</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10097" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10098" uniqueCount="297">
   <si>
     <t>num</t>
   </si>
@@ -921,28 +916,29 @@
   <si>
     <t>Groupe2</t>
   </si>
+  <si>
+    <t>Habitat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -954,27 +950,17 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="12"/>
@@ -999,13 +985,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,8 +1005,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -1030,79 +1026,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="19"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="20">
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="Normal 4" xfId="19"/>
-    <cellStyle name="Pourcentage 2" xfId="7"/>
-    <cellStyle name="XLConnect.Boolean" xfId="4"/>
-    <cellStyle name="XLConnect.DateTime" xfId="5"/>
-    <cellStyle name="XLConnect.Header" xfId="1"/>
-    <cellStyle name="XLConnect.Numeric" xfId="3"/>
-    <cellStyle name="XLConnect.String" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Pourcentage 2" xfId="4"/>
+    <cellStyle name="XLConnect.Boolean" xfId="5"/>
+    <cellStyle name="XLConnect.DateTime" xfId="6"/>
+    <cellStyle name="XLConnect.Header" xfId="7"/>
+    <cellStyle name="XLConnect.Numeric" xfId="8"/>
+    <cellStyle name="XLConnect.String" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1392,18 +1351,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3060" topLeftCell="A61"/>
-      <selection activeCell="R1" sqref="R1:S1"/>
+      <selection activeCell="T2" sqref="T2"/>
       <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>287</v>
       </c>
@@ -1461,8 +1420,11 @@
       <c r="S1" s="9" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
         <v>15</v>
       </c>
@@ -1491,7 +1453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <v>15</v>
       </c>
@@ -1520,7 +1482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>15</v>
       </c>
@@ -1549,7 +1511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>15</v>
       </c>
@@ -1578,7 +1540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>15</v>
       </c>
@@ -1607,7 +1569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>15</v>
       </c>
@@ -1636,7 +1598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <v>15</v>
       </c>
@@ -1665,7 +1627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>15</v>
       </c>
@@ -1694,7 +1656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>15</v>
       </c>
@@ -1723,7 +1685,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
         <v>15</v>
       </c>
@@ -1752,7 +1714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="3">
         <v>15</v>
       </c>
@@ -1781,7 +1743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
         <v>15</v>
       </c>
@@ -1810,7 +1772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
         <v>15</v>
       </c>
@@ -1839,7 +1801,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -1868,7 +1830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3175,21 +3137,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q60"/>
-  <sortState ref="A2:V60">
-    <sortCondition ref="B2:B60"/>
-  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q1874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3197,7 +3152,7 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="4" t="s">
@@ -80192,28 +80147,19 @@
       <c r="O1874" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:Q1874">
-    <sortCondition ref="A2:A1874"/>
-    <sortCondition ref="B2:B1874"/>
-    <sortCondition ref="F2:F1874"/>
-  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M373"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
@@ -92463,24 +92409,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
@@ -98226,27 +98168,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="J2:K159" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="9" t="s">
@@ -101170,27 +101108,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="K2:L82" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
@@ -101216,1051 +101150,1043 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="12">
-        <v>15</v>
-      </c>
-      <c r="B2" s="12">
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="3">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
         <v>301</v>
       </c>
       <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>39728</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="12">
-        <v>15</v>
-      </c>
-      <c r="B3" s="12">
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="3">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
         <v>302</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>39679</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="12">
-        <v>15</v>
-      </c>
-      <c r="B4" s="12">
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="3">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
         <v>303</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>39679</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="12">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12">
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="3">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
         <v>304</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>39728</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="12">
-        <v>15</v>
-      </c>
-      <c r="B6" s="12">
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" s="3">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
         <v>305</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>39639</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="12">
-        <v>15</v>
-      </c>
-      <c r="B7" s="12">
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="3">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
         <v>306</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>39639</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="12">
-        <v>15</v>
-      </c>
-      <c r="B8" s="12">
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="3">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
         <v>307</v>
       </c>
       <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>39679</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="12">
-        <v>15</v>
-      </c>
-      <c r="B9" s="12">
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="3">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
         <v>308</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>39623</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="12">
-        <v>15</v>
-      </c>
-      <c r="B10" s="12">
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="3">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
         <v>309</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>39623</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="12">
-        <v>15</v>
-      </c>
-      <c r="B11" s="12">
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="3">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
         <v>310</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>39638</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="12">
-        <v>15</v>
-      </c>
-      <c r="B12" s="12">
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="3">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
         <v>311</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>39638</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="12">
-        <v>15</v>
-      </c>
-      <c r="B13" s="12">
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="3">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
         <v>312</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>39638</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="12">
-        <v>15</v>
-      </c>
-      <c r="B14" s="12">
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="3">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
         <v>313</v>
       </c>
       <c r="C14" s="11">
         <v>1</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>39728</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="12">
-        <v>15</v>
-      </c>
-      <c r="B15" s="12">
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
         <v>314</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>39707</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12">
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
         <v>315</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>39723</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15">
-      <c r="A17" s="12">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12">
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
         <v>316</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>39721</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="12">
-        <v>15</v>
-      </c>
-      <c r="B18" s="12">
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
         <v>317</v>
       </c>
       <c r="C18" s="11">
         <v>1</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>39728</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="12">
-        <v>15</v>
-      </c>
-      <c r="B19" s="12">
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
         <v>318</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="14">
         <v>39707</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15">
-      <c r="A20" s="12">
-        <v>15</v>
-      </c>
-      <c r="B20" s="12">
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
         <v>319</v>
       </c>
       <c r="C20" s="11">
         <v>1</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>39665</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15">
-      <c r="A21" s="12">
-        <v>15</v>
-      </c>
-      <c r="B21" s="12">
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="A21" s="3">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
         <v>320</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>39723</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="12">
-        <v>15</v>
-      </c>
-      <c r="B22" s="12">
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="3">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3">
         <v>321</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="14">
         <v>39723</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="12">
-        <v>15</v>
-      </c>
-      <c r="B23" s="12">
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="3">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3">
         <v>322</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="14">
         <v>39721</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="12">
-        <v>15</v>
-      </c>
-      <c r="B24" s="12">
+    <row r="24" spans="1:5" ht="15.75">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3">
         <v>323</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="3">
         <v>3</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="14">
         <v>39707</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="12">
-        <v>15</v>
-      </c>
-      <c r="B25" s="12">
+    <row r="25" spans="1:5" ht="15.75">
+      <c r="A25" s="3">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3">
         <v>324</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>39660</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="12">
-        <v>15</v>
-      </c>
-      <c r="B26" s="12">
+    <row r="26" spans="1:5" ht="15.75">
+      <c r="A26" s="3">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3">
         <v>325</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>39665</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="12">
-        <v>15</v>
-      </c>
-      <c r="B27" s="12">
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="3">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3">
         <v>326</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="14">
         <v>39673</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="12">
-        <v>15</v>
-      </c>
-      <c r="B28" s="12">
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="3">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3">
         <v>327</v>
       </c>
       <c r="C28" s="11">
         <v>1</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="3">
         <v>3</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="14">
         <v>39723</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="12">
-        <v>15</v>
-      </c>
-      <c r="B29" s="12">
+    <row r="29" spans="1:5" ht="15.75">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3">
         <v>328</v>
       </c>
       <c r="C29" s="11">
         <v>1</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="3">
         <v>3</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="14">
         <v>39721</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="12">
-        <v>15</v>
-      </c>
-      <c r="B30" s="12">
+    <row r="30" spans="1:5" ht="15.75">
+      <c r="A30" s="3">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3">
         <v>329</v>
       </c>
       <c r="C30" s="11">
         <v>1</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <v>39653</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="12">
-        <v>15</v>
-      </c>
-      <c r="B31" s="12">
+    <row r="31" spans="1:5" ht="15.75">
+      <c r="A31" s="3">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3">
         <v>330</v>
       </c>
       <c r="C31" s="11">
         <v>1</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="3">
         <v>3</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="14">
         <v>39660</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="12">
-        <v>15</v>
-      </c>
-      <c r="B32" s="12">
+    <row r="32" spans="1:5" ht="15.75">
+      <c r="A32" s="3">
+        <v>15</v>
+      </c>
+      <c r="B32" s="3">
         <v>331</v>
       </c>
       <c r="C32" s="11">
         <v>1</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="3">
         <v>3</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="14">
         <v>39660</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15">
-      <c r="A33" s="12">
-        <v>15</v>
-      </c>
-      <c r="B33" s="12">
+    <row r="33" spans="1:5" ht="15.75">
+      <c r="A33" s="3">
+        <v>15</v>
+      </c>
+      <c r="B33" s="3">
         <v>332</v>
       </c>
       <c r="C33" s="11">
         <v>1</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="3">
         <v>3</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="14">
         <v>39665</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15">
-      <c r="A34" s="12">
-        <v>15</v>
-      </c>
-      <c r="B34" s="12">
+    <row r="34" spans="1:5" ht="15.75">
+      <c r="A34" s="3">
+        <v>15</v>
+      </c>
+      <c r="B34" s="3">
         <v>333</v>
       </c>
       <c r="C34" s="11">
         <v>1</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="3">
         <v>3</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="14">
         <v>39673</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15">
-      <c r="A35" s="12">
-        <v>15</v>
-      </c>
-      <c r="B35" s="12">
+    <row r="35" spans="1:5" ht="15.75">
+      <c r="A35" s="3">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3">
         <v>334</v>
       </c>
       <c r="C35" s="11">
         <v>1</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="3">
         <v>3</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="14">
         <v>39673</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15">
-      <c r="A36" s="12">
-        <v>15</v>
-      </c>
-      <c r="B36" s="12">
+    <row r="36" spans="1:5" ht="15.75">
+      <c r="A36" s="3">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3">
         <v>335</v>
       </c>
       <c r="C36" s="11">
         <v>1</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="3">
         <v>3</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="14">
         <v>39674</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15">
-      <c r="A37" s="12">
-        <v>15</v>
-      </c>
-      <c r="B37" s="12">
+    <row r="37" spans="1:5" ht="15.75">
+      <c r="A37" s="3">
+        <v>15</v>
+      </c>
+      <c r="B37" s="3">
         <v>336</v>
       </c>
       <c r="C37" s="11">
         <v>1</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="3">
         <v>3</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="14">
         <v>39653</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15">
-      <c r="A38" s="12">
-        <v>15</v>
-      </c>
-      <c r="B38" s="12">
+    <row r="38" spans="1:5" ht="15.75">
+      <c r="A38" s="3">
+        <v>15</v>
+      </c>
+      <c r="B38" s="3">
         <v>337</v>
       </c>
       <c r="C38" s="11">
         <v>1</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="3">
         <v>3</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="14">
         <v>39654</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15">
-      <c r="A39" s="12">
-        <v>15</v>
-      </c>
-      <c r="B39" s="12">
+    <row r="39" spans="1:5" ht="15.75">
+      <c r="A39" s="3">
+        <v>15</v>
+      </c>
+      <c r="B39" s="3">
         <v>338</v>
       </c>
       <c r="C39" s="11">
         <v>1</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="3">
         <v>3</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="14">
         <v>39654</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15">
-      <c r="A40" s="12">
-        <v>15</v>
-      </c>
-      <c r="B40" s="12">
+    <row r="40" spans="1:5" ht="15.75">
+      <c r="A40" s="3">
+        <v>15</v>
+      </c>
+      <c r="B40" s="3">
         <v>339</v>
       </c>
       <c r="C40" s="11">
         <v>1</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="3">
         <v>3</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="14">
         <v>39672</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15">
-      <c r="A41" s="12">
-        <v>15</v>
-      </c>
-      <c r="B41" s="12">
+    <row r="41" spans="1:5" ht="15.75">
+      <c r="A41" s="3">
+        <v>15</v>
+      </c>
+      <c r="B41" s="3">
         <v>340</v>
       </c>
       <c r="C41" s="11">
         <v>1</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="3">
         <v>3</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="14">
         <v>39672</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15">
-      <c r="A42" s="12">
-        <v>15</v>
-      </c>
-      <c r="B42" s="12">
+    <row r="42" spans="1:5" ht="15.75">
+      <c r="A42" s="3">
+        <v>15</v>
+      </c>
+      <c r="B42" s="3">
         <v>341</v>
       </c>
       <c r="C42" s="11">
         <v>1</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="3">
         <v>3</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="14">
         <v>39672</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15">
-      <c r="A43" s="12">
-        <v>15</v>
-      </c>
-      <c r="B43" s="12">
+    <row r="43" spans="1:5" ht="15.75">
+      <c r="A43" s="3">
+        <v>15</v>
+      </c>
+      <c r="B43" s="3">
         <v>342</v>
       </c>
       <c r="C43" s="11">
         <v>1</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="3">
         <v>3</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="14">
         <v>39674</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15">
-      <c r="A44" s="12">
-        <v>15</v>
-      </c>
-      <c r="B44" s="12">
+    <row r="44" spans="1:5" ht="15.75">
+      <c r="A44" s="3">
+        <v>15</v>
+      </c>
+      <c r="B44" s="3">
         <v>343</v>
       </c>
       <c r="C44" s="11">
         <v>1</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="3">
         <v>3</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="14">
         <v>39646</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15">
-      <c r="A45" s="12">
-        <v>15</v>
-      </c>
-      <c r="B45" s="12">
+    <row r="45" spans="1:5" ht="15.75">
+      <c r="A45" s="3">
+        <v>15</v>
+      </c>
+      <c r="B45" s="3">
         <v>344</v>
       </c>
       <c r="C45" s="11">
         <v>1</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="3">
         <v>3</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="14">
         <v>39646</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15">
-      <c r="A46" s="12">
-        <v>15</v>
-      </c>
-      <c r="B46" s="12">
+    <row r="46" spans="1:5" ht="15.75">
+      <c r="A46" s="3">
+        <v>15</v>
+      </c>
+      <c r="B46" s="3">
         <v>345</v>
       </c>
       <c r="C46" s="11">
         <v>1</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="3">
         <v>3</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="14">
         <v>39653</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15">
-      <c r="A47" s="12">
-        <v>15</v>
-      </c>
-      <c r="B47" s="12">
+    <row r="47" spans="1:5" ht="15.75">
+      <c r="A47" s="3">
+        <v>15</v>
+      </c>
+      <c r="B47" s="3">
         <v>346</v>
       </c>
       <c r="C47" s="11">
         <v>1</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="3">
         <v>3</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="14">
         <v>39653</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="12">
-        <v>15</v>
-      </c>
-      <c r="B48" s="12">
+    <row r="48" spans="1:5" ht="15.75">
+      <c r="A48" s="3">
+        <v>15</v>
+      </c>
+      <c r="B48" s="3">
         <v>347</v>
       </c>
       <c r="C48" s="11">
         <v>1</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="3">
         <v>3</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="14">
         <v>39624</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15">
-      <c r="A49" s="12">
-        <v>15</v>
-      </c>
-      <c r="B49" s="12">
+    <row r="49" spans="1:5" ht="15.75">
+      <c r="A49" s="3">
+        <v>15</v>
+      </c>
+      <c r="B49" s="3">
         <v>348</v>
       </c>
       <c r="C49" s="11">
         <v>1</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="3">
         <v>3</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="14">
         <v>39661</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15">
-      <c r="A50" s="12">
-        <v>15</v>
-      </c>
-      <c r="B50" s="12">
+    <row r="50" spans="1:5" ht="15.75">
+      <c r="A50" s="3">
+        <v>15</v>
+      </c>
+      <c r="B50" s="3">
         <v>349</v>
       </c>
       <c r="C50" s="11">
         <v>1</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="3">
         <v>3</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="14">
         <v>39674</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15">
-      <c r="A51" s="12">
-        <v>15</v>
-      </c>
-      <c r="B51" s="12">
+    <row r="51" spans="1:5" ht="15.75">
+      <c r="A51" s="3">
+        <v>15</v>
+      </c>
+      <c r="B51" s="3">
         <v>350</v>
       </c>
       <c r="C51" s="11">
         <v>1</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="3">
         <v>3</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="14">
         <v>39644</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15">
-      <c r="A52" s="12">
-        <v>15</v>
-      </c>
-      <c r="B52" s="12">
+    <row r="52" spans="1:5" ht="15.75">
+      <c r="A52" s="3">
+        <v>15</v>
+      </c>
+      <c r="B52" s="3">
         <v>351</v>
       </c>
       <c r="C52" s="11">
         <v>1</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="3">
         <v>3</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="14">
         <v>39666</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15">
-      <c r="A53" s="12">
-        <v>15</v>
-      </c>
-      <c r="B53" s="12">
+    <row r="53" spans="1:5" ht="15.75">
+      <c r="A53" s="3">
+        <v>15</v>
+      </c>
+      <c r="B53" s="3">
         <v>352</v>
       </c>
       <c r="C53" s="11">
         <v>1</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="3">
         <v>3</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="14">
         <v>39624</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15">
-      <c r="A54" s="12">
-        <v>15</v>
-      </c>
-      <c r="B54" s="12">
+    <row r="54" spans="1:5" ht="15.75">
+      <c r="A54" s="3">
+        <v>15</v>
+      </c>
+      <c r="B54" s="3">
         <v>353</v>
       </c>
       <c r="C54" s="11">
         <v>1</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="3">
         <v>3</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="14">
         <v>39661</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15">
-      <c r="A55" s="12">
-        <v>15</v>
-      </c>
-      <c r="B55" s="12">
+    <row r="55" spans="1:5" ht="15.75">
+      <c r="A55" s="3">
+        <v>15</v>
+      </c>
+      <c r="B55" s="3">
         <v>354</v>
       </c>
       <c r="C55" s="11">
         <v>1</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="3">
         <v>3</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="14">
         <v>39644</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15">
-      <c r="A56" s="12">
-        <v>15</v>
-      </c>
-      <c r="B56" s="12">
+    <row r="56" spans="1:5" ht="15.75">
+      <c r="A56" s="3">
+        <v>15</v>
+      </c>
+      <c r="B56" s="3">
         <v>355</v>
       </c>
       <c r="C56" s="11">
         <v>1</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="3">
         <v>3</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="14">
         <v>39666</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15">
-      <c r="A57" s="12">
-        <v>15</v>
-      </c>
-      <c r="B57" s="12">
+    <row r="57" spans="1:5" ht="15.75">
+      <c r="A57" s="3">
+        <v>15</v>
+      </c>
+      <c r="B57" s="3">
         <v>356</v>
       </c>
       <c r="C57" s="11">
         <v>1</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="3">
         <v>3</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="14">
         <v>39651</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15">
-      <c r="A58" s="12">
-        <v>15</v>
-      </c>
-      <c r="B58" s="12">
+    <row r="58" spans="1:5" ht="15.75">
+      <c r="A58" s="3">
+        <v>15</v>
+      </c>
+      <c r="B58" s="3">
         <v>357</v>
       </c>
       <c r="C58" s="11">
         <v>1</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="3">
         <v>3</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="14">
         <v>39661</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15">
-      <c r="A59" s="12">
-        <v>15</v>
-      </c>
-      <c r="B59" s="12">
+    <row r="59" spans="1:5" ht="15.75">
+      <c r="A59" s="3">
+        <v>15</v>
+      </c>
+      <c r="B59" s="3">
         <v>358</v>
       </c>
       <c r="C59" s="11">
         <v>1</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="3">
         <v>3</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="14">
         <v>39644</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15">
-      <c r="A60" s="12">
-        <v>15</v>
-      </c>
-      <c r="B60" s="12">
+    <row r="60" spans="1:5" ht="15.75">
+      <c r="A60" s="3">
+        <v>15</v>
+      </c>
+      <c r="B60" s="3">
         <v>359</v>
       </c>
       <c r="C60" s="11">
         <v>1</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="3">
         <v>3</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="14">
         <v>39651</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>